--- a/swing_strategy_vix_sim_strict_20260123.xlsx
+++ b/swing_strategy_vix_sim_strict_20260123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
         <v>112.01</v>
       </c>
       <c r="G2" t="n">
-        <v>121.23</v>
+        <v>122.84</v>
       </c>
       <c r="H2" t="n">
         <v>89.7</v>
@@ -673,7 +673,7 @@
         <v>54.92</v>
       </c>
       <c r="G3" t="n">
-        <v>60.16</v>
+        <v>59.41</v>
       </c>
       <c r="H3" t="n">
         <v>81.62</v>
@@ -765,7 +765,7 @@
         <v>316.41</v>
       </c>
       <c r="G4" t="n">
-        <v>346.5</v>
+        <v>342.22</v>
       </c>
       <c r="H4" t="n">
         <v>87.87</v>
@@ -931,59 +931,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CSGS</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79.83</v>
+        <v>65.03</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.53 - 80.49</t>
+          <t>64.94 - 65.72</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80.01000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="F6" t="n">
-        <v>76.42</v>
+        <v>62.4</v>
       </c>
       <c r="G6" t="n">
-        <v>82.64</v>
+        <v>67.48</v>
       </c>
       <c r="H6" t="n">
-        <v>80.09</v>
+        <v>79.13</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.28</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09</v>
+        <v>-0.26</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="N6" t="n">
-        <v>28520509</v>
+        <v>235581025</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>0.63</v>
       </c>
       <c r="P6" t="n">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2276792320</v>
+        <v>30623451136</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>36.02</v>
+        <v>26.3</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1018,82 +1018,82 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.03</v>
+        <v>121.69</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>64.94 - 65.72</t>
+          <t>120.60 - 122.06</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65.33</v>
+        <v>121.33</v>
       </c>
       <c r="F7" t="n">
-        <v>62.4</v>
+        <v>111.62</v>
       </c>
       <c r="G7" t="n">
-        <v>67.48</v>
+        <v>125.35</v>
       </c>
       <c r="H7" t="n">
-        <v>79.13</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.28</v>
+        <v>0.99</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.26</v>
+        <v>1.08</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="N7" t="n">
-        <v>235581025</v>
+        <v>1091262981</v>
       </c>
       <c r="O7" t="n">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7</v>
+        <v>1.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>30623451136</v>
+        <v>133692309504</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>26.3</v>
+        <v>100</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -1115,55 +1115,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>121.69</v>
+        <v>25.77</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>120.60 - 122.06</t>
+          <t>25.12 - 25.42</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>121.33</v>
+        <v>25.27</v>
       </c>
       <c r="F8" t="n">
-        <v>111.62</v>
+        <v>23.25</v>
       </c>
       <c r="G8" t="n">
-        <v>125.35</v>
+        <v>27.1</v>
       </c>
       <c r="H8" t="n">
-        <v>95.15000000000001</v>
+        <v>97.63</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.99</v>
+        <v>4.47</v>
       </c>
       <c r="K8" t="n">
-        <v>1.08</v>
+        <v>2.42</v>
       </c>
       <c r="L8" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.2</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.23</v>
-      </c>
       <c r="N8" t="n">
-        <v>1091262981</v>
+        <v>642106588</v>
       </c>
       <c r="O8" t="n">
         <v>0.8</v>
       </c>
       <c r="P8" t="n">
-        <v>1.01</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>133692309504</v>
+        <v>16539986944</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -1207,77 +1207,77 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25.77</v>
+        <v>253.73</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.12 - 25.42</t>
+          <t>250.69 - 253.73</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.27</v>
+        <v>252.21</v>
       </c>
       <c r="F9" t="n">
-        <v>23.25</v>
+        <v>232.03</v>
       </c>
       <c r="G9" t="n">
-        <v>26.12</v>
+        <v>270.72</v>
       </c>
       <c r="H9" t="n">
-        <v>97.63</v>
+        <v>95.45</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.47</v>
+        <v>0.61</v>
       </c>
       <c r="K9" t="n">
-        <v>2.42</v>
+        <v>0.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="N9" t="n">
-        <v>642106588</v>
+        <v>1628041540</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P9" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="Q9" t="n">
-        <v>16539986944</v>
+        <v>413082976256</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>100</v>
+        <v>33.89</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>高位放量分歧</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1287,99 +1287,99 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DVAX</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15.65</v>
+        <v>178.18</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.57 - 15.76</t>
+          <t>177.31 - 179.45</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.66</v>
+        <v>178.38</v>
       </c>
       <c r="F10" t="n">
-        <v>14.96</v>
+        <v>169.82</v>
       </c>
       <c r="G10" t="n">
-        <v>16.18</v>
+        <v>186.18</v>
       </c>
       <c r="H10" t="n">
-        <v>81.70999999999999</v>
+        <v>30.08</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="K10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
       <c r="N10" t="n">
-        <v>113684064</v>
+        <v>2873130000</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>0.45</v>
       </c>
       <c r="P10" t="n">
-        <v>0.57</v>
+        <v>-0.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1837700736</v>
+        <v>511934267392</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>86.52</v>
+        <v>9.26</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>派发阶段</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>downtrend</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>distribution</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -1391,70 +1391,72 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DBRG</t>
+          <t>ADEA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15.37</v>
+        <v>19.91</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.27 - 15.45</t>
+          <t>19.82 - 20.06</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.36</v>
+        <v>19.94</v>
       </c>
       <c r="F11" t="n">
-        <v>14.67</v>
+        <v>18.56</v>
       </c>
       <c r="G11" t="n">
-        <v>16.2</v>
+        <v>20.6</v>
       </c>
       <c r="H11" t="n">
-        <v>78.79000000000001</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>-0.54</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.53</v>
+      </c>
       <c r="L11" t="n">
-        <v>-0.95</v>
+        <v>0.01</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.02</v>
+        <v>0.19</v>
       </c>
       <c r="N11" t="n">
-        <v>182669899</v>
+        <v>109510191</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.39</v>
+        <v>0.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2998914560</v>
+        <v>2180347904</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>高位阶段或趋势停滞，风险偏大</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>75.43000000000001</v>
+        <v>27.37</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1464,194 +1466,10 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>253.73</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>250.69 - 253.73</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>252.21</v>
-      </c>
-      <c r="F12" t="n">
-        <v>232.03</v>
-      </c>
-      <c r="G12" t="n">
-        <v>264.77</v>
-      </c>
-      <c r="H12" t="n">
-        <v>95.45</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1628041540</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>413082976256</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>35.58</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>高位放量分歧</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ADEA</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>19.82 - 20.06</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="F13" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="G13" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>84.95999999999999</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N13" t="n">
-        <v>109510191</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2180347904</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>高位阶段或趋势停滞，风险偏大</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
         <is>
           <t>防御性对冲</t>
         </is>
